--- a/12_家計簿.xlsx
+++ b/12_家計簿.xlsx
@@ -8,13 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\am\Documents\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96F69931-1AC1-4E6C-8A04-E021F1BF8EA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9CA2833-F17A-444A-84F3-E20315D061BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1B7767F7-00C8-4131-9D08-96F876FF4F30}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="1月" sheetId="1" r:id="rId1"/>
+    <sheet name="2月" sheetId="2" r:id="rId2"/>
+    <sheet name="3月" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1月'!$A$6:$E$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2月'!$A$6:$E$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'3月'!$A$6:$E$17</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="33">
   <si>
     <t>かんたん家計簿</t>
     <rPh sb="4" eb="7">
@@ -208,6 +215,133 @@
     <t>歯医者</t>
     <rPh sb="0" eb="3">
       <t>ハイシャ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>目標金額</t>
+    <rPh sb="0" eb="4">
+      <t>モクヒョウキンガク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>セルを選択してドラッグ、離す前にctrlを押すとコピー</t>
+    <rPh sb="3" eb="5">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ハナ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>→今月の予算の八割　=A4*0.8</t>
+    <rPh sb="1" eb="3">
+      <t>コンゲツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヨサン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ハチワリ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>条件付き書式の設定：設定値を超えていると色付きにできる</t>
+    <rPh sb="0" eb="3">
+      <t>ジョウケンツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ショシキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>セッテイチ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>イロツ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>数値の設定はセル指定できる</t>
+    <rPh sb="0" eb="2">
+      <t>スウチ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>オートフィルター：</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>特定のデータの抽出</t>
+    <rPh sb="0" eb="2">
+      <t>トクテイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>チュウシュツ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>データ→フィルター→検索可能</t>
+    <rPh sb="10" eb="12">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>数式→ワークシート分析→数式の表示</t>
+    <rPh sb="0" eb="2">
+      <t>スウシキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ブンセキ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>スウシキ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>数式以外のセルの中身を削除ができる</t>
+    <rPh sb="0" eb="2">
+      <t>スウシキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ナカミ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>サクジョ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -264,7 +398,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -292,6 +426,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -365,59 +505,65 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -425,7 +571,38 @@
     <cellStyle name="桁区切り" xfId="1" builtinId="6"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -735,10 +912,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6B43D2D-0975-456F-9A68-DD9B59336CD3}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -746,303 +923,1067 @@
     <col min="1" max="5" width="11.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A3" s="4" t="s">
+    <row r="1" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E3" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>200000</v>
       </c>
-      <c r="B4" s="16">
+      <c r="B4" s="14">
         <f>SUM(C7:C24)</f>
         <v>165910</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="14">
         <f>A4-B4</f>
         <v>34090</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="6" t="s">
+      <c r="E4" s="14">
+        <f>A4*0.8</f>
+        <v>160000</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="17"/>
-    </row>
-    <row r="7" spans="1:7" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="9">
+      <c r="G6" s="15"/>
+    </row>
+    <row r="7" spans="1:9" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="7">
         <v>44927</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="10">
         <v>35000</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="10">
         <f>C7</f>
         <v>35000</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A8" s="10">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A8" s="8">
         <v>44928</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="11">
         <v>20000</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="11">
         <f>D7+C8</f>
         <v>55000</v>
       </c>
-      <c r="E8" s="15"/>
+      <c r="E8" s="13"/>
       <c r="G8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A9" s="10">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A9" s="8">
         <v>44928</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="11">
         <v>3650</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="11">
         <f>D8+C9</f>
         <v>58650</v>
       </c>
-      <c r="E9" s="15"/>
+      <c r="E9" s="13"/>
       <c r="G9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A10" s="10">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A10" s="8">
         <v>44931</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="11">
         <v>3000</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="11">
         <f t="shared" ref="D10:D17" si="0">D9+C10</f>
         <v>61650</v>
       </c>
-      <c r="E10" s="15"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A11" s="10">
+      <c r="E10" s="13"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A11" s="8">
         <v>44934</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="11">
         <v>800</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="11">
         <f t="shared" si="0"/>
         <v>62450</v>
       </c>
-      <c r="E11" s="15"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A12" s="10">
+      <c r="E11" s="13"/>
+      <c r="G11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A12" s="8">
         <v>44934</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="11">
         <v>4000</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="11">
         <f t="shared" si="0"/>
         <v>66450</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="13" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A13" s="10">
+      <c r="G12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A13" s="8">
         <v>44936</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="11">
         <v>4200</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="11">
         <f t="shared" si="0"/>
         <v>70650</v>
       </c>
-      <c r="E13" s="15"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A14" s="10">
+      <c r="E13" s="13"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A14" s="8">
         <v>44937</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C14" s="11">
         <v>1800</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="11">
         <f t="shared" si="0"/>
         <v>72450</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="E14" s="13" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A15" s="10">
+      <c r="G14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A15" s="8">
         <v>44939</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C15" s="11">
         <v>12800</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="11">
         <f t="shared" si="0"/>
         <v>85250</v>
       </c>
-      <c r="E15" s="15"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A16" s="10">
+      <c r="E15" s="13"/>
+      <c r="G15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A16" s="8">
         <v>44941</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16" s="11">
         <v>75400</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16" s="11">
         <f t="shared" si="0"/>
         <v>160650</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="E16" s="13" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A17" s="10">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A17" s="8">
         <v>44944</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C17" s="11">
         <v>5260</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="11">
         <f t="shared" si="0"/>
         <v>165910</v>
       </c>
-      <c r="E17" s="15" t="s">
+      <c r="E17" s="13" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A18" s="10"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="15"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A19" s="10"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="15"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A20" s="10"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="15"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A21" s="10"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="15"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A22" s="10"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="15"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A23" s="10"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="15"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A24" s="11"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="15"/>
+      <c r="G17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A18" s="8"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="13"/>
+      <c r="G18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A19" s="8"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="13"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A20" s="8"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="13"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A21" s="8"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="13"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A22" s="8"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="13"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A23" s="8"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="13"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A24" s="9"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="13"/>
     </row>
   </sheetData>
+  <autoFilter ref="A6:E17" xr:uid="{D6B43D2D-0975-456F-9A68-DD9B59336CD3}"/>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
+  <conditionalFormatting sqref="D7:D18">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
+      <formula>$E$4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B91503B-F65B-4504-BAEA-8432989A6867}">
+  <dimension ref="A1:L24"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18:L18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="5" width="11.69921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A4" s="1"/>
+      <c r="B4" s="14">
+        <f>SUM(C7:C24)</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="14">
+        <f>A4-B4</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="14">
+        <f>A4*0.8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="15"/>
+    </row>
+    <row r="7" spans="1:12" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="7"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10">
+        <f>C7</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="12"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A8" s="8"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11">
+        <f>D7+C8</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="13"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A9" s="8"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11">
+        <f>D8+C9</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="13"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A10" s="8"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11">
+        <f t="shared" ref="D10:D17" si="0">D9+C10</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="13"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A11" s="8"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E11" s="13"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A12" s="8"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E12" s="13"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A13" s="8"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="13"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A14" s="8"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E14" s="13"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A15" s="8"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E15" s="13"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A16" s="8"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E16" s="13"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A17" s="8"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E17" s="13"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A18" s="8"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="13"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A19" s="8"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="13"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A20" s="8"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="13"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A21" s="8"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="13"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A22" s="8"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="13"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A23" s="8"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="13"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A24" s="9"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="13"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A6:E17" xr:uid="{D6B43D2D-0975-456F-9A68-DD9B59336CD3}"/>
+  <mergeCells count="18">
+    <mergeCell ref="G21:L21"/>
+    <mergeCell ref="G22:L22"/>
+    <mergeCell ref="G23:L23"/>
+    <mergeCell ref="G15:L15"/>
+    <mergeCell ref="G16:L16"/>
+    <mergeCell ref="G17:L17"/>
+    <mergeCell ref="G18:L18"/>
+    <mergeCell ref="G19:L19"/>
+    <mergeCell ref="G20:L20"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="G7:L7"/>
+    <mergeCell ref="G8:L8"/>
+    <mergeCell ref="G9:L9"/>
+    <mergeCell ref="G10:L10"/>
+    <mergeCell ref="G11:L11"/>
+    <mergeCell ref="G12:L12"/>
+    <mergeCell ref="G13:L13"/>
+    <mergeCell ref="G14:L14"/>
+  </mergeCells>
+  <phoneticPr fontId="3"/>
+  <conditionalFormatting sqref="D7:D18">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+      <formula>$E$4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{029F9D4C-5AED-4D82-9973-221A2D520957}">
+  <dimension ref="A1:L24"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18:L18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="5" width="11.69921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A4" s="1"/>
+      <c r="B4" s="14">
+        <f>SUM(C7:C24)</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="14">
+        <f>A4-B4</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="14">
+        <f>A4*0.8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="15"/>
+    </row>
+    <row r="7" spans="1:12" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="7"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10">
+        <f>C7</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="12"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A8" s="8"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11">
+        <f>D7+C8</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="13"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A9" s="8"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11">
+        <f>D8+C9</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="13"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A10" s="8"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11">
+        <f t="shared" ref="D10:D17" si="0">D9+C10</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="13"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A11" s="8"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E11" s="13"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A12" s="8"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E12" s="13"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A13" s="8"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="13"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A14" s="8"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E14" s="13"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A15" s="8"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E15" s="13"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A16" s="8"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E16" s="13"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A17" s="8"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E17" s="13"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A18" s="8"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="13"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A19" s="8"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="13"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A20" s="8"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="13"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A21" s="8"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="13"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A22" s="8"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="13"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A23" s="8"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="13"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A24" s="9"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="13"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A6:E17" xr:uid="{D6B43D2D-0975-456F-9A68-DD9B59336CD3}"/>
+  <mergeCells count="18">
+    <mergeCell ref="G18:L18"/>
+    <mergeCell ref="G19:L19"/>
+    <mergeCell ref="G20:L20"/>
+    <mergeCell ref="G21:L21"/>
+    <mergeCell ref="G22:L22"/>
+    <mergeCell ref="G23:L23"/>
+    <mergeCell ref="G12:L12"/>
+    <mergeCell ref="G13:L13"/>
+    <mergeCell ref="G14:L14"/>
+    <mergeCell ref="G15:L15"/>
+    <mergeCell ref="G16:L16"/>
+    <mergeCell ref="G17:L17"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="G7:L7"/>
+    <mergeCell ref="G8:L8"/>
+    <mergeCell ref="G9:L9"/>
+    <mergeCell ref="G10:L10"/>
+    <mergeCell ref="G11:L11"/>
+  </mergeCells>
+  <phoneticPr fontId="3"/>
+  <conditionalFormatting sqref="D7:D18">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>$E$4</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>